--- a/github_svn/git.xlsx
+++ b/github_svn/git.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="git的使用" sheetId="2" r:id="rId1"/>
     <sheet name="样式名" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="网址" sheetId="3" r:id="rId3"/>
+    <sheet name="单页网址" sheetId="4" r:id="rId4"/>
+    <sheet name="快捷键" sheetId="5" r:id="rId5"/>
+    <sheet name="搭环境" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
   <si>
     <t>显示当前的git配置信息</t>
   </si>
@@ -574,6 +577,607 @@
   </si>
   <si>
     <t>pen-cell</t>
+  </si>
+  <si>
+    <t>网站名</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>工作网址</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/</t>
+  </si>
+  <si>
+    <t>百度翻译</t>
+  </si>
+  <si>
+    <t>https://fanyi.baidu.com/</t>
+  </si>
+  <si>
+    <t>github网</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>sunsetFog</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>禅道(演示链接)</t>
+  </si>
+  <si>
+    <t>https://demo.zentao.net/my/</t>
+  </si>
+  <si>
+    <t>工作周报(演示链接)</t>
+  </si>
+  <si>
+    <t>http://www.gongzuozhoubao.com/</t>
+  </si>
+  <si>
+    <t>工作邮箱(演示链接)</t>
+  </si>
+  <si>
+    <t>https://mail.qq.com/</t>
+  </si>
+  <si>
+    <t>接口文档(演示链接)</t>
+  </si>
+  <si>
+    <t>百度网盘</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/</t>
+  </si>
+  <si>
+    <t>ABC******</t>
+  </si>
+  <si>
+    <t>学信网</t>
+  </si>
+  <si>
+    <t>http://www.chsi.com.cn/</t>
+  </si>
+  <si>
+    <t>pc端ui组件</t>
+  </si>
+  <si>
+    <t>element ui</t>
+  </si>
+  <si>
+    <t>https://element.eleme.cn</t>
+  </si>
+  <si>
+    <t>iview ui</t>
+  </si>
+  <si>
+    <t>https://www.iviewui.com</t>
+  </si>
+  <si>
+    <t>移动端ui组件</t>
+  </si>
+  <si>
+    <t>mint ui</t>
+  </si>
+  <si>
+    <t>http://mint-ui.github.io</t>
+  </si>
+  <si>
+    <t>vant ui</t>
+  </si>
+  <si>
+    <t>https://vant-contrib.gitee.io/vant/#/zh-CN/</t>
+  </si>
+  <si>
+    <t>muse ui</t>
+  </si>
+  <si>
+    <t>http://www.muse-ui.org</t>
+  </si>
+  <si>
+    <t>BUI</t>
+  </si>
+  <si>
+    <t>http://www.easybui.com/docs/?id=controls</t>
+  </si>
+  <si>
+    <t>yd ui</t>
+  </si>
+  <si>
+    <t>http://www.ydui.org</t>
+  </si>
+  <si>
+    <t>无框架ui</t>
+  </si>
+  <si>
+    <t>lay ui</t>
+  </si>
+  <si>
+    <t>http://www.layui.com</t>
+  </si>
+  <si>
+    <t>json在线解析</t>
+  </si>
+  <si>
+    <t>http://www.json.cn/</t>
+  </si>
+  <si>
+    <t>json在线各类解析</t>
+  </si>
+  <si>
+    <t>https://www.bejson.com/</t>
+  </si>
+  <si>
+    <t>在线正则表达式测试</t>
+  </si>
+  <si>
+    <t>http://tool.oschina.net/regex/#</t>
+  </si>
+  <si>
+    <t>图标下载</t>
+  </si>
+  <si>
+    <t>http://www.iconfont.cn/</t>
+  </si>
+  <si>
+    <t>bootstrap图标</t>
+  </si>
+  <si>
+    <t>http://www.bootcss.com/</t>
+  </si>
+  <si>
+    <t>swiper</t>
+  </si>
+  <si>
+    <t>http://www.swiper.com.cn/api/</t>
+  </si>
+  <si>
+    <t>echarts图表</t>
+  </si>
+  <si>
+    <t>https://echarts.apache.org/zh/option.html#title</t>
+  </si>
+  <si>
+    <t>学习网</t>
+  </si>
+  <si>
+    <t>w3cschool</t>
+  </si>
+  <si>
+    <t>https://www.w3cschool.cn/</t>
+  </si>
+  <si>
+    <t>知乎网</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/</t>
+  </si>
+  <si>
+    <t>慕课网</t>
+  </si>
+  <si>
+    <t>https://www.imooc.com/</t>
+  </si>
+  <si>
+    <t>站长素材</t>
+  </si>
+  <si>
+    <t>http://sc.chinaz.com/</t>
+  </si>
+  <si>
+    <t>凡科网</t>
+  </si>
+  <si>
+    <t>http://www.faisco.com/</t>
+  </si>
+  <si>
+    <t>中国石墨网</t>
+  </si>
+  <si>
+    <t>http://news.shimo.3.biz/</t>
+  </si>
+  <si>
+    <t>ui设计 墨刀</t>
+  </si>
+  <si>
+    <t>https://free.modao.cc</t>
+  </si>
+  <si>
+    <t>https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639</t>
+  </si>
+  <si>
+    <t>demo大师</t>
+  </si>
+  <si>
+    <t>http://www.demodashi.com</t>
+  </si>
+  <si>
+    <t>任务助手worktile</t>
+  </si>
+  <si>
+    <t>https://yunzhong.worktile.com/</t>
+  </si>
+  <si>
+    <t>小程序</t>
+  </si>
+  <si>
+    <t>微信公众号平台</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/</t>
+  </si>
+  <si>
+    <t>ABCabc123456</t>
+  </si>
+  <si>
+    <t>1456300078@qq.com</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>额外网址</t>
+  </si>
+  <si>
+    <t>淘宝网</t>
+  </si>
+  <si>
+    <t>https://www.taobao.com/</t>
+  </si>
+  <si>
+    <t>京东网</t>
+  </si>
+  <si>
+    <t>https://www.jd.com/</t>
+  </si>
+  <si>
+    <t>17173新闻中心</t>
+  </si>
+  <si>
+    <t>http://news.17173.com/</t>
+  </si>
+  <si>
+    <t>说玩网:(mp4视频)</t>
+  </si>
+  <si>
+    <t>http://www.shuowan.com/</t>
+  </si>
+  <si>
+    <t>东方头条</t>
+  </si>
+  <si>
+    <t>http://mini.eastday.com</t>
+  </si>
+  <si>
+    <t>博客园</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/</t>
+  </si>
+  <si>
+    <t>石墨文档</t>
+  </si>
+  <si>
+    <t>https://shimo.im/</t>
+  </si>
+  <si>
+    <t>精美图-白网站</t>
+  </si>
+  <si>
+    <t>http://bai.com/</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>Wampserver64位官网下载以及安装配置</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a911711054/article/details/73478090</t>
+  </si>
+  <si>
+    <t>Git 远程仓库</t>
+  </si>
+  <si>
+    <t>http://www.shouce.ren/api/view/a/7492</t>
+  </si>
+  <si>
+    <t>网站项目上线</t>
+  </si>
+  <si>
+    <t>https://jingyan.baidu.com/article/25648fc19d2c809191fd001f.html</t>
+  </si>
+  <si>
+    <t>MySql控制台命令</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/what-lee/p/8686512.html</t>
+  </si>
+  <si>
+    <t>javascript时间戳和日期字符串相互转换</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/yjf512/p/3796229.html</t>
+  </si>
+  <si>
+    <t>有道人工翻译(网易)(有道词典）</t>
+  </si>
+  <si>
+    <t>http://f.youdao.com/?vendor=deskdict&amp;client=deskdict_deepin</t>
+  </si>
+  <si>
+    <t>基于vue的短信验证码倒计时demo</t>
+  </si>
+  <si>
+    <t>http://www.jb51.net/article/123626.htm</t>
+  </si>
+  <si>
+    <t>Vue中添加手机验证码组件功能操作方法</t>
+  </si>
+  <si>
+    <t>http://www.jb51.net/article/129932.htm</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/blackin/archive/2017/12/06/7993868.html</t>
+  </si>
+  <si>
+    <t>JQ常用代码</t>
+  </si>
+  <si>
+    <t>https://www.hellojava.com/article/84</t>
+  </si>
+  <si>
+    <t>棱形3d轮播图</t>
+  </si>
+  <si>
+    <t>http://www.qdfuns.com/notes/25100/82982d78c511e1d3e0b1940bff832b81.html</t>
+  </si>
+  <si>
+    <t>vue-cli</t>
+  </si>
+  <si>
+    <t>https://jingyan.baidu.com/article/1612d5008a30b4e20e1eee31.html</t>
+  </si>
+  <si>
+    <t>vscode</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>选,ctr + A</t>
+  </si>
+  <si>
+    <t>控制台</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>任务管理器</t>
+  </si>
+  <si>
+    <t>ctrl + alt + del</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>选,ctr + C</t>
+  </si>
+  <si>
+    <t>底部导航条---右击---</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t>ctr + V</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>切换窗口</t>
+  </si>
+  <si>
+    <t>ctrl + alt + tab</t>
+  </si>
+  <si>
+    <t>后返回</t>
+  </si>
+  <si>
+    <t>ctr + Z</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>上下箭头</t>
+  </si>
+  <si>
+    <t>cmd控制台</t>
+  </si>
+  <si>
+    <t>运行 --- window + r</t>
+  </si>
+  <si>
+    <t>前返回</t>
+  </si>
+  <si>
+    <t>ctr + Y</t>
+  </si>
+  <si>
+    <t>设备管理器</t>
+  </si>
+  <si>
+    <t>查找替换</t>
+  </si>
+  <si>
+    <t>ctr + F</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>控制面板</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>ctr + S</t>
+  </si>
+  <si>
+    <t>换行</t>
+  </si>
+  <si>
+    <t>alt + enter</t>
+  </si>
+  <si>
+    <t>缩进</t>
+  </si>
+  <si>
+    <t>选,tab</t>
+  </si>
+  <si>
+    <t>缩退</t>
+  </si>
+  <si>
+    <t>选,shift + tab</t>
+  </si>
+  <si>
+    <t>powershell终端</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>选,ctr + /   按二次取消注释</t>
+  </si>
+  <si>
+    <t>终端</t>
+  </si>
+  <si>
+    <t>文件夹里,shirft+右击</t>
+  </si>
+  <si>
+    <t>Shift + Alt + A</t>
+  </si>
+  <si>
+    <t>查看node版本</t>
+  </si>
+  <si>
+    <t>node -v</t>
+  </si>
+  <si>
+    <t>敲/**</t>
+  </si>
+  <si>
+    <t>查看npm版本</t>
+  </si>
+  <si>
+    <t>npm -v</t>
+  </si>
+  <si>
+    <t>代码对齐</t>
+  </si>
+  <si>
+    <t>选,Shift + Alt + F</t>
+  </si>
+  <si>
+    <t>查看cnpm版本</t>
+  </si>
+  <si>
+    <t>cnpm -v</t>
+  </si>
+  <si>
+    <t>间隔线</t>
+  </si>
+  <si>
+    <t>点空格:(右下角)---更改视图</t>
+  </si>
+  <si>
+    <t>分两部分看</t>
+  </si>
+  <si>
+    <t>拖文件头右边移</t>
+  </si>
+  <si>
+    <t>移动文件</t>
+  </si>
+  <si>
+    <t>剪切再粘贴</t>
+  </si>
+  <si>
+    <t>粘贴了文件</t>
+  </si>
+  <si>
+    <t>点刷新资源管理器</t>
+  </si>
+  <si>
+    <t>查看-集成终端</t>
+  </si>
+  <si>
+    <t>vscode安装插件</t>
+  </si>
+  <si>
+    <t>语法高亮</t>
+  </si>
+  <si>
+    <t>vetur</t>
+  </si>
+  <si>
+    <t>中文简体</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>px转rem</t>
+  </si>
+  <si>
+    <t>px to rem</t>
+  </si>
+  <si>
+    <t>安装配置NodeJS、NPM</t>
+  </si>
+  <si>
+    <t>https://jingyan.baidu.com/article/2d5afd69e243cc85a2e28efa.html
+ C:\Program Files\nodejs        建立"node_global"及"node_cache"两个文件夹
+ 系统变量
+ NODE_PATH
+ C:\Program Files\nodejs\node_global\node_modules    注意是C盘</t>
+  </si>
+  <si>
+    <t>cnpm安装</t>
+  </si>
+  <si>
+    <t>npm install -g cnpm --registry=https://registry.npm.taobao.org</t>
   </si>
 </sst>
 </file>
@@ -581,10 +1185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -592,6 +1196,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,14 +1231,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,14 +1261,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,8 +1288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,37 +1311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -708,9 +1320,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,9 +1334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,28 +1350,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -770,12 +1392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +1427,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +1505,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,49 +1571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,49 +1601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,56 +1611,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1020,36 +1636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.05"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.05"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.05"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.05"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1059,11 +1645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,32 +1675,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,6 +1718,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1140,10 +1741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,174 +1753,189 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,23 +1944,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,10 +1968,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1708,8 +2348,8 @@
   <sheetPr/>
   <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1728,356 +2368,356 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="2:4">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="2:4">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="2:4">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="16"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="16"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
@@ -2137,472 +2777,472 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="1" max="1" width="15.7777777777778" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="15.7777777777778" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2620,16 +3260,1130 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="50.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="20.7777777777778" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17817836856</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="8">
+        <v>17817836856</v>
+      </c>
+      <c r="E10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="8">
+        <v>17817836856</v>
+      </c>
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="C35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:4">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="2:4">
+      <c r="B45" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="2:4">
+      <c r="B59" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com/"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://fanyi.baidu.com/"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://github.com/" tooltip="https://github.com/"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://demo.zentao.net/my/"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.gongzuozhoubao.com/"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://mail.qq.com/"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://element.eleme.cn"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://www.iviewui.com"/>
+    <hyperlink ref="C13" r:id="rId9" display="http://mint-ui.github.io"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://vant-contrib.gitee.io/vant/#/zh-CN/"/>
+    <hyperlink ref="C15" r:id="rId11" display="http://www.muse-ui.org"/>
+    <hyperlink ref="C16" r:id="rId12" display="http://www.easybui.com/docs/?id=controls"/>
+    <hyperlink ref="C17" r:id="rId13" display="http://www.ydui.org"/>
+    <hyperlink ref="C18" r:id="rId14" display="http://www.layui.com"/>
+    <hyperlink ref="C20" r:id="rId15" display="http://www.json.cn/"/>
+    <hyperlink ref="C21" r:id="rId16" display="https://www.bejson.com/"/>
+    <hyperlink ref="C22" r:id="rId17" display="http://tool.oschina.net/regex/#"/>
+    <hyperlink ref="C23" r:id="rId18" display="http://www.iconfont.cn/"/>
+    <hyperlink ref="C24" r:id="rId19" display="http://www.bootcss.com/"/>
+    <hyperlink ref="C26" r:id="rId20" display="https://echarts.apache.org/zh/option.html#title"/>
+    <hyperlink ref="C9" r:id="rId21" display="https://pan.baidu.com/"/>
+    <hyperlink ref="C10" r:id="rId22" display="http://www.chsi.com.cn/"/>
+    <hyperlink ref="C28" r:id="rId23" display="https://www.w3cschool.cn/"/>
+    <hyperlink ref="C29" r:id="rId24" display="https://www.zhihu.com/"/>
+    <hyperlink ref="C30" r:id="rId25" display="https://www.imooc.com/"/>
+    <hyperlink ref="C31" r:id="rId26" display="http://sc.chinaz.com/"/>
+    <hyperlink ref="C32" r:id="rId27" display="http://www.faisco.com/"/>
+    <hyperlink ref="C33" r:id="rId28" display="http://news.shimo.3.biz/"/>
+    <hyperlink ref="C34" r:id="rId29" display="https://free.modao.cc"/>
+    <hyperlink ref="C35" r:id="rId30" display="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639"/>
+    <hyperlink ref="C36" r:id="rId31" display="http://www.demodashi.com"/>
+    <hyperlink ref="C37" r:id="rId32" display="https://yunzhong.worktile.com/"/>
+    <hyperlink ref="C43" r:id="rId33" display="https://mp.weixin.qq.com/"/>
+    <hyperlink ref="F43" r:id="rId34" display="1456300078@qq.com"/>
+    <hyperlink ref="C60" r:id="rId35" display="https://www.taobao.com/"/>
+    <hyperlink ref="C61" r:id="rId36" display="https://www.jd.com/"/>
+    <hyperlink ref="C62" r:id="rId37" display="http://news.17173.com/"/>
+    <hyperlink ref="C63" r:id="rId38" display="http://www.shuowan.com/"/>
+    <hyperlink ref="C64" r:id="rId39" display="http://mini.eastday.com"/>
+    <hyperlink ref="C65" r:id="rId40" display="https://www.cnblogs.com/"/>
+    <hyperlink ref="C66" r:id="rId41" display="https://shimo.im/"/>
+    <hyperlink ref="C67" r:id="rId42" display="http://bai.com/"/>
+    <hyperlink ref="C25" r:id="rId43" display="http://www.swiper.com.cn/api/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/a911711054/article/details/73478090"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.shouce.ren/api/view/a/7492"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://jingyan.baidu.com/article/25648fc19d2c809191fd001f.html"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.cnblogs.com/what-lee/p/8686512.html"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.cnblogs.com/yjf512/p/3796229.html"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://f.youdao.com/?vendor=deskdict&amp;client=deskdict_deepin"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://www.jb51.net/article/123626.htm"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://www.jb51.net/article/129932.htm"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://www.cnblogs.com/blackin/archive/2017/12/06/7993868.html"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.hellojava.com/article/84"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://www.qdfuns.com/notes/25100/82982d78c511e1d3e0b1940bff832b81.html"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://jingyan.baidu.com/article/1612d5008a30b4e20e1eee31.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="30.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="2"/>
+    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="30.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:J8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/github_svn/git.xlsx
+++ b/github_svn/git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="git的使用" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="网址" sheetId="3" r:id="rId3"/>
     <sheet name="单页网址" sheetId="4" r:id="rId4"/>
     <sheet name="快捷键" sheetId="5" r:id="rId5"/>
-    <sheet name="搭环境" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="381">
   <si>
     <t>显示当前的git配置信息</t>
   </si>
@@ -1071,113 +1070,112 @@
     <t>选,shift + tab</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>选,ctr + /   按二次取消注释</t>
+  </si>
+  <si>
+    <t>Shift + Alt + A</t>
+  </si>
+  <si>
+    <t>敲/**</t>
+  </si>
+  <si>
+    <t>代码对齐</t>
+  </si>
+  <si>
+    <t>选,Shift + Alt + F</t>
+  </si>
+  <si>
+    <t>间隔线</t>
+  </si>
+  <si>
+    <t>点空格:(右下角)---更改视图</t>
+  </si>
+  <si>
+    <t>分两部分看</t>
+  </si>
+  <si>
+    <t>拖文件头右边移</t>
+  </si>
+  <si>
+    <t>移动文件</t>
+  </si>
+  <si>
+    <t>剪切再粘贴</t>
+  </si>
+  <si>
+    <t>粘贴了文件</t>
+  </si>
+  <si>
+    <t>点刷新资源管理器</t>
+  </si>
+  <si>
+    <t>终端</t>
+  </si>
+  <si>
+    <t>查看-集成终端</t>
+  </si>
+  <si>
+    <t>搭环境</t>
+  </si>
+  <si>
+    <t>vscode安装插件</t>
+  </si>
+  <si>
+    <t>语法高亮</t>
+  </si>
+  <si>
+    <t>vetur</t>
+  </si>
+  <si>
+    <t>中文简体</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>px转rem</t>
+  </si>
+  <si>
+    <t>px to rem</t>
+  </si>
+  <si>
     <t>powershell终端</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>选,ctr + /   按二次取消注释</t>
-  </si>
-  <si>
-    <t>终端</t>
-  </si>
-  <si>
     <t>文件夹里,shirft+右击</t>
   </si>
   <si>
-    <t>Shift + Alt + A</t>
-  </si>
-  <si>
     <t>查看node版本</t>
   </si>
   <si>
     <t>node -v</t>
   </si>
   <si>
-    <t>敲/**</t>
-  </si>
-  <si>
     <t>查看npm版本</t>
   </si>
   <si>
     <t>npm -v</t>
   </si>
   <si>
-    <t>代码对齐</t>
-  </si>
-  <si>
-    <t>选,Shift + Alt + F</t>
-  </si>
-  <si>
     <t>查看cnpm版本</t>
   </si>
   <si>
     <t>cnpm -v</t>
   </si>
   <si>
-    <t>间隔线</t>
-  </si>
-  <si>
-    <t>点空格:(右下角)---更改视图</t>
-  </si>
-  <si>
-    <t>分两部分看</t>
-  </si>
-  <si>
-    <t>拖文件头右边移</t>
-  </si>
-  <si>
-    <t>移动文件</t>
-  </si>
-  <si>
-    <t>剪切再粘贴</t>
-  </si>
-  <si>
-    <t>粘贴了文件</t>
-  </si>
-  <si>
-    <t>点刷新资源管理器</t>
-  </si>
-  <si>
-    <t>查看-集成终端</t>
-  </si>
-  <si>
-    <t>vscode安装插件</t>
-  </si>
-  <si>
-    <t>语法高亮</t>
-  </si>
-  <si>
-    <t>vetur</t>
-  </si>
-  <si>
-    <t>中文简体</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>px转rem</t>
-  </si>
-  <si>
-    <t>px to rem</t>
-  </si>
-  <si>
-    <t>安装配置NodeJS、NPM</t>
-  </si>
-  <si>
-    <t>https://jingyan.baidu.com/article/2d5afd69e243cc85a2e28efa.html
+    <t>windows7 安装配置NodeJS、NPM
+https://jingyan.baidu.com/article/2d5afd69e243cc85a2e28efa.html
  C:\Program Files\nodejs        建立"node_global"及"node_cache"两个文件夹
  系统变量
  NODE_PATH
- C:\Program Files\nodejs\node_global\node_modules    注意是C盘</t>
-  </si>
-  <si>
-    <t>cnpm安装</t>
-  </si>
-  <si>
-    <t>npm install -g cnpm --registry=https://registry.npm.taobao.org</t>
+ C:\Program Files\nodejs\node_global\node_modules    注意是C盘
+cnpm安装：
+npm install -g cnpm --registry=https://registry.npm.taobao.org
+Adobe Photoshop 7(绿色版)     其他ps要付费
+通过《金山毒霸》里面的《软件管家》下载</t>
   </si>
 </sst>
 </file>
@@ -1185,14 +1183,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1238,7 +1251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,19 +1264,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,14 +1280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,6 +1309,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1320,9 +1326,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1331,6 +1337,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1343,22 +1356,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,6 +1387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,13 +1446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,13 +1470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1494,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,31 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,55 +1584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,31 +1614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,26 +1655,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,17 +1703,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,13 +1723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,10 +1760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1753,168 +1772,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1932,22 +1960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,10 +1972,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1980,11 +1996,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,10 +2008,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2368,356 +2396,356 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="2:4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="2:4">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="2:4">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="29"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="29"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="29"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="37"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
@@ -2782,467 +2810,467 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="15.7777777777778" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
+    <col min="1" max="1" width="15.7777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9" style="19"/>
+    <col min="4" max="4" width="15.7777777777778" style="18" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3271,7 +3299,7 @@
     <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="50.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.7777777777778" style="11" customWidth="1"/>
     <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
   </cols>
@@ -3283,7 +3311,7 @@
       <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E1" t="s">
@@ -3294,34 +3322,34 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E4" t="s">
@@ -3329,47 +3357,47 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>17817836856</v>
       </c>
       <c r="E9" t="s">
@@ -3377,14 +3405,14 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>17817836856</v>
       </c>
       <c r="E10" t="s">
@@ -3392,69 +3420,69 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3465,95 +3493,95 @@
       <c r="B18" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>17817836856</v>
       </c>
       <c r="E29" t="s">
@@ -3561,129 +3589,129 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="3"/>
+      <c r="C35" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
         <v>265</v>
       </c>
       <c r="E43" t="s">
         <v>266</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="2:4">
-      <c r="B45" s="13" t="s">
+    <row r="45" s="1" customFormat="1" spans="2:4">
+      <c r="B45" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="2:4">
-      <c r="B59" s="13" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:4">
+      <c r="B59" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="10" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3691,7 +3719,7 @@
       <c r="B61" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3699,7 +3727,7 @@
       <c r="B62" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3707,7 +3735,7 @@
       <c r="B63" t="s">
         <v>276</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3715,7 +3743,7 @@
       <c r="B64" t="s">
         <v>278</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3723,7 +3751,7 @@
       <c r="B65" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3731,7 +3759,7 @@
       <c r="B66" t="s">
         <v>282</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3739,7 +3767,7 @@
       <c r="B67" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="10" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3833,7 +3861,7 @@
       <c r="A2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3841,7 +3869,7 @@
       <c r="A3" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3849,7 +3877,7 @@
       <c r="A4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3857,7 +3885,7 @@
       <c r="A5" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3865,7 +3893,7 @@
       <c r="A6" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3873,7 +3901,7 @@
       <c r="A7" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3881,7 +3909,7 @@
       <c r="A8" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3889,12 +3917,12 @@
       <c r="A9" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3902,7 +3930,7 @@
       <c r="A11" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3910,7 +3938,7 @@
       <c r="A12" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3918,7 +3946,7 @@
       <c r="A13" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3945,38 +3973,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="2"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="30.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="2"/>
+    <col min="6" max="6" width="8.88888888888889" style="1"/>
     <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="30.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="2"/>
+    <col min="9" max="9" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -3991,7 +4019,7 @@
       <c r="E2" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>317</v>
       </c>
       <c r="H2" t="s">
@@ -4005,7 +4033,7 @@
       <c r="B3" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>321</v>
       </c>
@@ -4017,10 +4045,10 @@
       <c r="B4" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="G4" t="s">
         <v>325</v>
       </c>
@@ -4066,10 +4094,10 @@
       <c r="B7" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="G7" t="s">
         <v>339</v>
       </c>
@@ -4103,135 +4131,199 @@
       <c r="B10" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="B11" t="s">
         <v>349</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
         <v>350</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>351</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>353</v>
-      </c>
-      <c r="D12" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" t="s">
-        <v>374</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" t="s">
         <v>377</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>378</v>
       </c>
+      <c r="B31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -4239,149 +4331,11 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="G2:G3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:J8"/>
+    <mergeCell ref="A33:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/github_svn/git.xlsx
+++ b/github_svn/git.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
   <si>
     <t>显示当前的git配置信息</t>
   </si>
@@ -959,10 +959,16 @@
     <t>vscode</t>
   </si>
   <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
     <t>浏览器</t>
   </si>
   <si>
-    <t>window</t>
+    <t>git</t>
   </si>
   <si>
     <t>全选</t>
@@ -971,16 +977,28 @@
     <t>选,ctr + A</t>
   </si>
   <si>
+    <t>任务管理器</t>
+  </si>
+  <si>
+    <t>ctrl + alt + del</t>
+  </si>
+  <si>
+    <t>换行</t>
+  </si>
+  <si>
+    <t>alt + enter</t>
+  </si>
+  <si>
     <t>控制台</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>任务管理器</t>
-  </si>
-  <si>
-    <t>ctrl + alt + del</t>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>上下箭头</t>
   </si>
   <si>
     <t>复制</t>
@@ -992,15 +1010,18 @@
     <t>底部导航条---右击---</t>
   </si>
   <si>
+    <t>删除内容</t>
+  </si>
+  <si>
+    <t>选,delete</t>
+  </si>
+  <si>
     <t>粘贴</t>
   </si>
   <si>
     <t>ctr + V</t>
   </si>
   <si>
-    <t>git</t>
-  </si>
-  <si>
     <t>切换窗口</t>
   </si>
   <si>
@@ -1013,12 +1034,6 @@
     <t>ctr + Z</t>
   </si>
   <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>上下箭头</t>
-  </si>
-  <si>
     <t>cmd控制台</t>
   </si>
   <si>
@@ -1040,9 +1055,6 @@
     <t>ctr + F</t>
   </si>
   <si>
-    <t>excel</t>
-  </si>
-  <si>
     <t>控制面板</t>
   </si>
   <si>
@@ -1050,12 +1062,6 @@
   </si>
   <si>
     <t>ctr + S</t>
-  </si>
-  <si>
-    <t>换行</t>
-  </si>
-  <si>
-    <t>alt + enter</t>
   </si>
   <si>
     <t>缩进</t>
@@ -1184,8 +1190,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1244,6 +1250,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1251,22 +1264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,46 +1277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,8 +1301,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,16 +1376,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,6 +1392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1446,7 +1458,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,61 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,91 +1638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,30 +1667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1698,7 +1686,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,22 +1736,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,10 +1772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,16 +1784,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,146 +1805,143 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -1960,22 +1969,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,10 +1981,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,22 +2005,34 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2396,356 +2405,356 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="2:4">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="2:4">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="2:4">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="32"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="32"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="32"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
@@ -2810,467 +2819,467 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9" style="19"/>
-    <col min="4" max="4" width="15.7777777777778" style="18" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20"/>
+    <col min="1" max="1" width="15.7777777777778" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9" style="18"/>
+    <col min="4" max="4" width="15.7777777777778" style="17" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3299,7 +3308,7 @@
     <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="50.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.7777777777778" style="10" customWidth="1"/>
     <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
   </cols>
@@ -3311,7 +3320,7 @@
       <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E1" t="s">
@@ -3322,34 +3331,34 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E4" t="s">
@@ -3357,47 +3366,47 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>17817836856</v>
       </c>
       <c r="E9" t="s">
@@ -3405,14 +3414,14 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>17817836856</v>
       </c>
       <c r="E10" t="s">
@@ -3420,69 +3429,69 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3493,95 +3502,95 @@
       <c r="B18" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>17817836856</v>
       </c>
       <c r="E29" t="s">
@@ -3589,129 +3598,129 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="5"/>
+      <c r="C35" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E43" t="s">
         <v>266</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:4">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:4">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3719,7 +3728,7 @@
       <c r="B61" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3727,7 +3736,7 @@
       <c r="B62" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3735,7 +3744,7 @@
       <c r="B63" t="s">
         <v>276</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3743,7 +3752,7 @@
       <c r="B64" t="s">
         <v>278</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3751,7 +3760,7 @@
       <c r="B65" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3759,7 +3768,7 @@
       <c r="B66" t="s">
         <v>282</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3767,7 +3776,7 @@
       <c r="B67" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3861,7 +3870,7 @@
       <c r="A2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3869,7 +3878,7 @@
       <c r="A3" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3877,7 +3886,7 @@
       <c r="A4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3885,7 +3894,7 @@
       <c r="A5" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3893,7 +3902,7 @@
       <c r="A6" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3901,7 +3910,7 @@
       <c r="A7" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3909,7 +3918,7 @@
       <c r="A8" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3917,12 +3926,12 @@
       <c r="A9" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3930,7 +3939,7 @@
       <c r="A11" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3938,7 +3947,7 @@
       <c r="A12" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3946,7 +3955,7 @@
       <c r="A13" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3973,368 +3982,377 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="30.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="1"/>
-    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="30.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="4.77777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="25.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="4.77777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="20.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="20.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="4.77777777777778" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="20.7777777777778" customWidth="1"/>
+    <col min="15" max="15" width="4.77777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>319</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>328</v>
+      </c>
       <c r="H3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="G4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>339</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>349</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>348</v>
+      <c r="A11" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>382</v>
+      </c>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A33:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/github_svn/git.xlsx
+++ b/github_svn/git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="git的使用" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="386">
   <si>
     <t>显示当前的git配置信息</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>git checkout -b "新分支名"</t>
+  </si>
+  <si>
+    <t>提交远程</t>
   </si>
   <si>
     <t>git push origin "新分支名"</t>
@@ -109,9 +112,6 @@
 2.git config user.email "邮箱地址"</t>
   </si>
   <si>
-    <t>提交分支</t>
-  </si>
-  <si>
     <t>git push origin "分支名"</t>
   </si>
   <si>
@@ -161,13 +161,16 @@
     <t>git push origin --delete "分支名"</t>
   </si>
   <si>
+    <t>不需要对应当前分支，对应也行</t>
+  </si>
+  <si>
     <t>删除本地分支</t>
   </si>
   <si>
     <t>git branch -d "分支名"</t>
   </si>
   <si>
-    <t>不删没影响，注意切换分支，避开当前分支与删除分支一样</t>
+    <t>不删没影响，注意切换分支，删除分支不能对应当前分支</t>
   </si>
   <si>
     <t>以下不重要</t>
@@ -1014,6 +1017,12 @@
   </si>
   <si>
     <t>选,delete</t>
+  </si>
+  <si>
+    <t>分离控制台</t>
+  </si>
+  <si>
+    <t>控制台三个点</t>
   </si>
   <si>
     <t>粘贴</t>
@@ -1189,8 +1198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1250,13 +1259,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1264,7 +1266,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,7 +1296,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,39 +1341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,49 +1363,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1458,37 +1461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,49 +1497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1527,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,13 +1587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,43 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,6 +1670,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1691,56 +1759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1749,21 +1767,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1772,10 +1775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1784,16 +1787,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1805,126 +1808,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1933,10 +1933,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1969,10 +1969,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,10 +1993,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,11 +2017,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2017,22 +2029,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2385,8 +2385,8 @@
   <sheetPr/>
   <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2405,387 +2405,391 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="C14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="2:4">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" ht="60" customHeight="1" spans="2:4">
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" ht="40" customHeight="1" spans="2:4">
+      <c r="B25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" ht="60" customHeight="1" spans="2:4">
-      <c r="B17" s="25" t="s">
+      <c r="D27" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="30"/>
+      <c r="C28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="30"/>
+      <c r="C29" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" ht="40" customHeight="1" spans="2:4">
-      <c r="B25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="D29" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="30"/>
+      <c r="C30" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="31"/>
-      <c r="C28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="31"/>
-      <c r="C29" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="31"/>
-      <c r="C30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>47</v>
       </c>
+      <c r="D35" s="33" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="B39" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>52</v>
       </c>
+      <c r="D40" s="36" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="36"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="37"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="21" t="s">
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>52</v>
+      <c r="D48" s="38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="39"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="38"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2813,474 +2817,474 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9" style="18"/>
-    <col min="4" max="4" width="15.7777777777778" style="17" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19"/>
+    <col min="1" max="1" width="15.7777777777778" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="15.7777777777778" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D1" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>73</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
+      <c r="E3" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="E4" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>85</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="B6" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>89</v>
       </c>
+      <c r="B7" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>91</v>
       </c>
+      <c r="B8" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>93</v>
       </c>
+      <c r="B9" s="16" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>95</v>
       </c>
+      <c r="B10" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>97</v>
       </c>
+      <c r="B11" s="16" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
+      <c r="B12" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>101</v>
       </c>
+      <c r="B13" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>103</v>
       </c>
+      <c r="B14" s="16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
+      <c r="B15" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>107</v>
       </c>
+      <c r="B16" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>109</v>
       </c>
+      <c r="B17" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>111</v>
       </c>
+      <c r="B18" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="B19" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
+      <c r="B20" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>117</v>
       </c>
+      <c r="B21" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>119</v>
       </c>
+      <c r="B22" s="16" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>121</v>
       </c>
+      <c r="B23" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>123</v>
       </c>
+      <c r="B24" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>125</v>
       </c>
+      <c r="B25" s="16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
+      <c r="B26" s="16" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>129</v>
       </c>
+      <c r="B27" s="16" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>131</v>
       </c>
+      <c r="B28" s="16" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>133</v>
       </c>
+      <c r="B29" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>135</v>
       </c>
+      <c r="B30" s="16" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>137</v>
       </c>
+      <c r="B31" s="16" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
+      <c r="B32" s="16" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>141</v>
       </c>
+      <c r="B33" s="16" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>143</v>
       </c>
+      <c r="B34" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>145</v>
       </c>
+      <c r="B35" s="16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>147</v>
       </c>
+      <c r="B36" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="B37" s="16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>151</v>
       </c>
+      <c r="B38" s="16" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>153</v>
       </c>
+      <c r="B39" s="16" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>155</v>
       </c>
+      <c r="B40" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>157</v>
       </c>
+      <c r="B41" s="16" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>159</v>
       </c>
+      <c r="B42" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>161</v>
       </c>
+      <c r="B43" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>163</v>
       </c>
+      <c r="B44" s="16" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>165</v>
       </c>
+      <c r="B45" s="16" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>167</v>
       </c>
+      <c r="B46" s="16" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>169</v>
       </c>
+      <c r="B47" s="16" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>171</v>
       </c>
+      <c r="B48" s="16" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>173</v>
       </c>
+      <c r="B49" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>175</v>
       </c>
+      <c r="B50" s="16" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>177</v>
       </c>
+      <c r="B51" s="16" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>179</v>
       </c>
+      <c r="B52" s="16" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>181</v>
       </c>
+      <c r="B53" s="16" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>183</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3299,8 +3303,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3308,476 +3312,476 @@
     <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="50.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.7777777777778" style="9" customWidth="1"/>
     <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>189</v>
+      <c r="A2" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="9" t="s">
         <v>191</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>199</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="11" t="s">
         <v>203</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="10">
+      <c r="C9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="9">
         <v>17817836856</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="9">
+        <v>17817836856</v>
+      </c>
+      <c r="E10" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="10">
-        <v>17817836856</v>
-      </c>
-      <c r="E10" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>210</v>
+      <c r="A11" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="9" t="s">
         <v>212</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="11" t="s">
         <v>214</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>215</v>
+      <c r="A13" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="11" t="s">
         <v>217</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="9" t="s">
         <v>221</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="C16" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="9" t="s">
         <v>225</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="9" t="s">
         <v>228</v>
       </c>
+      <c r="C18" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>69</v>
+      <c r="A20" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="9" t="s">
         <v>230</v>
       </c>
+      <c r="C20" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="9" t="s">
         <v>234</v>
       </c>
+      <c r="C22" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" s="9" t="s">
         <v>236</v>
       </c>
+      <c r="C23" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="9" t="s">
         <v>238</v>
       </c>
+      <c r="C24" s="8" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="C25" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="9" t="s">
         <v>242</v>
       </c>
+      <c r="C26" s="8" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>243</v>
+      <c r="A28" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="C28" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="10">
+      <c r="C29" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="9">
         <v>17817836856</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="9" t="s">
         <v>249</v>
       </c>
+      <c r="C30" s="8" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="9" t="s">
         <v>251</v>
       </c>
+      <c r="C31" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="9" t="s">
         <v>253</v>
       </c>
+      <c r="C32" s="8" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="9" t="s">
         <v>255</v>
       </c>
+      <c r="C33" s="8" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="9" t="s">
         <v>257</v>
       </c>
+      <c r="C34" s="8" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="C35" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="4"/>
+      <c r="C35" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="9" t="s">
         <v>260</v>
       </c>
+      <c r="C36" s="8" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="11" t="s">
         <v>262</v>
       </c>
+      <c r="C37" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>264</v>
-      </c>
-      <c r="C43" s="9" t="s">
         <v>265</v>
       </c>
+      <c r="C43" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="E43" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="F43" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:4">
-      <c r="B45" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:4">
-      <c r="B59" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>270</v>
-      </c>
-      <c r="C60" s="9" t="s">
         <v>271</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>272</v>
-      </c>
-      <c r="C61" s="9" t="s">
         <v>273</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>274</v>
-      </c>
-      <c r="C62" s="9" t="s">
         <v>275</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="9" t="s">
         <v>277</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C64" s="9" t="s">
         <v>279</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>280</v>
-      </c>
-      <c r="C65" s="9" t="s">
         <v>281</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>282</v>
-      </c>
-      <c r="C66" s="9" t="s">
         <v>283</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="9" t="s">
         <v>285</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3818,7 +3822,7 @@
     <hyperlink ref="C28" r:id="rId23" display="https://www.w3cschool.cn/"/>
     <hyperlink ref="C29" r:id="rId24" display="https://www.zhihu.com/"/>
     <hyperlink ref="C30" r:id="rId25" display="https://www.imooc.com/"/>
-    <hyperlink ref="C31" r:id="rId26" display="http://sc.chinaz.com/"/>
+    <hyperlink ref="C31" r:id="rId26" display="http://sc.chinaz.com/" tooltip="http://sc.chinaz.com/"/>
     <hyperlink ref="C32" r:id="rId27" display="http://www.faisco.com/"/>
     <hyperlink ref="C33" r:id="rId28" display="http://news.shimo.3.biz/"/>
     <hyperlink ref="C34" r:id="rId29" display="https://free.modao.cc"/>
@@ -3834,7 +3838,7 @@
     <hyperlink ref="C64" r:id="rId39" display="http://mini.eastday.com"/>
     <hyperlink ref="C65" r:id="rId40" display="https://www.cnblogs.com/"/>
     <hyperlink ref="C66" r:id="rId41" display="https://shimo.im/"/>
-    <hyperlink ref="C67" r:id="rId42" display="http://bai.com/"/>
+    <hyperlink ref="C67" r:id="rId42" display="http://bai.com/" tooltip="http://bai.com/"/>
     <hyperlink ref="C25" r:id="rId43" display="http://www.swiper.com.cn/api/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3860,103 +3864,103 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="9" t="s">
         <v>288</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="9" t="s">
         <v>290</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="9" t="s">
         <v>292</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="9" t="s">
         <v>294</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="9" t="s">
         <v>296</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="9" t="s">
         <v>298</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="9" t="s">
         <v>300</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="9" t="s">
         <v>302</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9" t="s">
-        <v>303</v>
+      <c r="B10" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="9" t="s">
         <v>305</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="9" t="s">
         <v>307</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="9" t="s">
         <v>309</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3984,8 +3988,8 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3998,348 +4002,354 @@
     <col min="6" max="6" width="4.77777777777778" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="20.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="20.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="4.77777777777778" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.77777777777778" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.7777777777778" customWidth="1"/>
     <col min="14" max="14" width="20.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="4.77777777777778" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.77777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="J3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>350</v>
+      <c r="A11" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B27" s="7"/>
+      <c r="A27" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B33" s="8"/>
+      <c r="A33" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/github_svn/git.xlsx
+++ b/github_svn/git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="git的使用" sheetId="2" r:id="rId1"/>
@@ -1279,9 +1279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,22 +1293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1317,32 +1300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,9 +1324,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1379,10 +1354,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1461,13 +1461,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,85 +1575,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,55 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,17 +1670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1699,23 +1688,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,6 +1729,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1750,20 +1753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1775,10 +1775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1787,7 +1787,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,112 +1808,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,7 +2385,7 @@
   <sheetPr/>
   <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2817,8 +2817,8 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3303,8 +3303,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3806,7 +3806,7 @@
     <hyperlink ref="C11" r:id="rId7" display="https://element.eleme.cn"/>
     <hyperlink ref="C12" r:id="rId8" display="https://www.iviewui.com"/>
     <hyperlink ref="C13" r:id="rId9" display="http://mint-ui.github.io"/>
-    <hyperlink ref="C14" r:id="rId10" display="https://vant-contrib.gitee.io/vant/#/zh-CN/"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://vant-contrib.gitee.io/vant/#/zh-CN/" tooltip="https://vant-contrib.gitee.io/vant/#/zh-CN/"/>
     <hyperlink ref="C15" r:id="rId11" display="http://www.muse-ui.org"/>
     <hyperlink ref="C16" r:id="rId12" display="http://www.easybui.com/docs/?id=controls"/>
     <hyperlink ref="C17" r:id="rId13" display="http://www.ydui.org"/>
